--- a/2nd_sem/582_structurePerdiction/hw1/New Microsoft Excel Worksheet.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/New Microsoft Excel Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Hamming</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Accuracy vs. Restarts (Nettalk Training)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -133,6 +163,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$A$1,Sheet1!$A$3,Sheet1!$A$5,Sheet1!$A$7,Sheet1!$A$9)</c:f>
@@ -183,6 +237,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -342,12 +397,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hamming Accuracy vs. Restarts (Nettalk Testing)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42777777777777776"/>
-          <c:y val="5.5555555555555552E-2"/>
+          <c:x val="9.5805555555555547E-2"/>
+          <c:y val="4.5921517758257091E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -400,6 +485,30 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>(Sheet1!$A$2,Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$8,Sheet1!$A$10)</c:f>
@@ -450,6 +559,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -488,7 +598,7 @@
         </c:txPr>
         <c:crossAx val="396614456"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -546,6 +656,662 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="393141184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hamming Accuracy vs. Restarts (Ocr Training)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$A$13,Sheet1!$A$15,Sheet1!$A$17,Sheet1!$A$19,Sheet1!$A$21)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86289798570500298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89018843404808301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87481048299761699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85921594108728605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85033571583279099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EAC-4A97-BD6A-4055F7EB0F53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="437081456"/>
+        <c:axId val="437081784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437081456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437081784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437081784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437081456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hamming Accuracy vs. Restarts (Ocr Testing)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$A$14,Sheet1!$A$16,Sheet1!$A$18,Sheet1!$A$20,Sheet1!$A$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61889184215906701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62625230014312006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61705172766305405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60171744019627804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60718053567777497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B29-4440-BFA0-6D9DD1910C0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="539285744"/>
+        <c:axId val="539281808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539285744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539281808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539281808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539285744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,6 +1440,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1191,6 +2037,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1747,15 +3625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:colOff>301942</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606742</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1775,6 +3653,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8182017D-D32A-48DA-BE1E-666978DFDBEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81429DCF-C41F-45D7-BBF5-F416071260B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2046,62 +3996,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="4" sqref="A2 A4 A6 A8 A10"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.78962655601659704</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.76014913007456497</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.79363762102351298</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.75876829605081397</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.78769017980636202</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.76111571389119004</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.79529737206085704</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.76291079812206497</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.80082987551867202</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.76815796741231701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.86289798570500298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.61889184215906701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.89018843404808301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.62625230014312006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.87481048299761699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.61705172766305405</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.85921594108728605</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.60171744019627804</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.85033571583279099</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.60718053567777497</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
